--- a/Glossary_linking_count.xlsx
+++ b/Glossary_linking_count.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="235">
   <si>
     <t>counts</t>
   </si>
@@ -34,259 +34,370 @@
     <t>Trustee</t>
   </si>
   <si>
+    <t>Personal Data</t>
+  </si>
+  <si>
     <t>Articles of Association</t>
   </si>
   <si>
+    <t>Bankruptcy</t>
+  </si>
+  <si>
     <t>Pre-Action</t>
   </si>
   <si>
+    <t>The Landlord and Tenant Act 1954</t>
+  </si>
+  <si>
     <t>Share Capital</t>
   </si>
   <si>
-    <t>Personal Data</t>
-  </si>
-  <si>
-    <t>Bankruptcy</t>
-  </si>
-  <si>
     <t>Financial Services and Markets Act 2000</t>
   </si>
   <si>
     <t>Limited Liability</t>
   </si>
   <si>
+    <t>Stamp Duty Land Tax</t>
+  </si>
+  <si>
+    <t>Arrears</t>
+  </si>
+  <si>
+    <t>Easement</t>
+  </si>
+  <si>
+    <t>Injunction</t>
+  </si>
+  <si>
     <t>Arbitral Tribunal</t>
   </si>
   <si>
+    <t>Limitation Period</t>
+  </si>
+  <si>
+    <t>Assured Shorthold Tenancy</t>
+  </si>
+  <si>
+    <t>Statement of Truth</t>
+  </si>
+  <si>
+    <t>Intestacy</t>
+  </si>
+  <si>
+    <t>Part 36</t>
+  </si>
+  <si>
+    <t>Building Contract</t>
+  </si>
+  <si>
+    <t>Harassment</t>
+  </si>
+  <si>
     <t>Adjudication</t>
   </si>
   <si>
-    <t>Statement of Truth</t>
-  </si>
-  <si>
-    <t>Arrears</t>
-  </si>
-  <si>
-    <t>Injunction</t>
-  </si>
-  <si>
-    <t>Building Contract</t>
-  </si>
-  <si>
-    <t>Harassment</t>
-  </si>
-  <si>
-    <t>Limitation Period</t>
-  </si>
-  <si>
-    <t>Part 36</t>
+    <t>Unfair Dismissal</t>
+  </si>
+  <si>
+    <t>Warranty</t>
+  </si>
+  <si>
+    <t>Data Subject</t>
   </si>
   <si>
     <t>Domicile</t>
   </si>
   <si>
-    <t>Warranty</t>
+    <t>Good Faith</t>
+  </si>
+  <si>
+    <t>Waiver</t>
+  </si>
+  <si>
+    <t>Parental Responsibility</t>
+  </si>
+  <si>
+    <t>Share Option</t>
+  </si>
+  <si>
+    <t>Without Prejudice</t>
+  </si>
+  <si>
+    <t>Nominal Value</t>
+  </si>
+  <si>
+    <t>Holding Company</t>
   </si>
   <si>
     <t>Ordinary Shares</t>
   </si>
   <si>
-    <t>Stamp Duty Land Tax</t>
-  </si>
-  <si>
-    <t>Share Option</t>
+    <t>Leave to Enter</t>
   </si>
   <si>
     <t>Financial Services Authority</t>
   </si>
   <si>
-    <t>Good Faith</t>
-  </si>
-  <si>
-    <t>Holding Company</t>
-  </si>
-  <si>
-    <t>Nominal Value</t>
-  </si>
-  <si>
     <t>Market Abuse</t>
   </si>
   <si>
-    <t>Unfair Dismissal</t>
-  </si>
-  <si>
     <t>Occupational Pension Scheme</t>
   </si>
   <si>
+    <t>Governing Law</t>
+  </si>
+  <si>
+    <t>Floating Charge</t>
+  </si>
+  <si>
+    <t>Lasting Power of Attorney</t>
+  </si>
+  <si>
+    <t>Contempt of Court</t>
+  </si>
+  <si>
     <t>Securitisation</t>
   </si>
   <si>
     <t>Criminal Procedure Rules</t>
   </si>
   <si>
+    <t>Trust of Land</t>
+  </si>
+  <si>
     <t>Scheme of Arrangement</t>
   </si>
   <si>
-    <t>Without Prejudice</t>
-  </si>
-  <si>
     <t>Market Abuse Regulation</t>
   </si>
   <si>
-    <t>Waiver</t>
-  </si>
-  <si>
-    <t>Governing Law</t>
-  </si>
-  <si>
-    <t>Leave to Enter</t>
+    <t>Force Majeure</t>
   </si>
   <si>
     <t>Practical Completion</t>
   </si>
   <si>
+    <t>Mortgagor</t>
+  </si>
+  <si>
+    <t>Child Arrangements Order</t>
+  </si>
+  <si>
+    <t>Legal Professional Privilege</t>
+  </si>
+  <si>
+    <t>Electronic Communications Code</t>
+  </si>
+  <si>
     <t>Disclosure Guidance and Transparency Rules</t>
   </si>
   <si>
-    <t>Data Subject</t>
-  </si>
-  <si>
-    <t>Contempt of Court</t>
-  </si>
-  <si>
-    <t>Floating Charge</t>
-  </si>
-  <si>
-    <t>The Landlord and Tenant Act 1954</t>
-  </si>
-  <si>
-    <t>Intestacy</t>
+    <t>Rent Review</t>
+  </si>
+  <si>
+    <t>Strike Out</t>
+  </si>
+  <si>
+    <t>Breach of Covenant</t>
+  </si>
+  <si>
+    <t>Company Voluntary Arrangement</t>
+  </si>
+  <si>
+    <t>Letters of Administration</t>
+  </si>
+  <si>
+    <t>Novation</t>
+  </si>
+  <si>
+    <t>Adverse Possession</t>
+  </si>
+  <si>
+    <t>Share Buyback</t>
+  </si>
+  <si>
+    <t>Vacant Possession</t>
   </si>
   <si>
     <t>Heads of Terms</t>
   </si>
   <si>
-    <t>Force Majeure</t>
+    <t>Restrictive Covenant</t>
+  </si>
+  <si>
+    <t>Limitation of Liability</t>
+  </si>
+  <si>
+    <t>Tenancy at Will</t>
+  </si>
+  <si>
+    <t>Decree Nisi</t>
+  </si>
+  <si>
+    <t>Debenture</t>
+  </si>
+  <si>
+    <t>Loan Notes</t>
   </si>
   <si>
     <t>Investment Treaty Arbitration</t>
   </si>
   <si>
-    <t>Easement</t>
-  </si>
-  <si>
-    <t>Loan Notes</t>
-  </si>
-  <si>
-    <t>Parental Responsibility</t>
-  </si>
-  <si>
-    <t>Legal Professional Privilege</t>
-  </si>
-  <si>
-    <t>Company Voluntary Arrangement</t>
+    <t>Whistleblowing</t>
+  </si>
+  <si>
+    <t>Defamation</t>
   </si>
   <si>
     <t>Withholding Tax</t>
   </si>
   <si>
-    <t>Whistleblowing</t>
-  </si>
-  <si>
-    <t>Limitation of Liability</t>
+    <t>Privity of Contract</t>
+  </si>
+  <si>
+    <t>Registrar of Companies</t>
+  </si>
+  <si>
+    <t>Liquidated Damages</t>
+  </si>
+  <si>
+    <t>Collateral Warranty</t>
+  </si>
+  <si>
+    <t>Dilapidations</t>
+  </si>
+  <si>
+    <t>Pre-emption Rights</t>
   </si>
   <si>
     <t>London Court of International Arbitration</t>
   </si>
   <si>
+    <t>Rights Issue</t>
+  </si>
+  <si>
+    <t>Non-Molestation Order</t>
+  </si>
+  <si>
+    <t>Res Judicata</t>
+  </si>
+  <si>
+    <t>Contaminated Land Regime</t>
+  </si>
+  <si>
     <t>The United Nations Commission on International Trade Law</t>
   </si>
   <si>
-    <t>Strike Out</t>
-  </si>
-  <si>
-    <t>Rights Issue</t>
-  </si>
-  <si>
-    <t>Debenture</t>
-  </si>
-  <si>
-    <t>Novation</t>
-  </si>
-  <si>
     <t>Stamp Duty Reserve Tax</t>
   </si>
   <si>
+    <t>Periodical Payments Order</t>
+  </si>
+  <si>
+    <t>Employee Benefit Trust</t>
+  </si>
+  <si>
+    <t>Care Order</t>
+  </si>
+  <si>
+    <t>Pay As You Earn</t>
+  </si>
+  <si>
+    <t>Financial Promotion</t>
+  </si>
+  <si>
+    <t>Data Protection Officer</t>
+  </si>
+  <si>
     <t>The Hong Kong International Arbitration Centre</t>
   </si>
   <si>
-    <t>Mortgagor</t>
-  </si>
-  <si>
-    <t>Res Judicata</t>
-  </si>
-  <si>
-    <t>Contaminated Land Regime</t>
-  </si>
-  <si>
-    <t>Share Buyback</t>
-  </si>
-  <si>
-    <t>Rent Review</t>
-  </si>
-  <si>
-    <t>Defamation</t>
-  </si>
-  <si>
-    <t>Electronic Communications Code</t>
+    <t>Interim Payment</t>
+  </si>
+  <si>
+    <t>Grant of Representation</t>
+  </si>
+  <si>
+    <t>Reasonable Adjustments</t>
+  </si>
+  <si>
+    <t>Share Incentive Plan</t>
+  </si>
+  <si>
+    <t>Constructive Trust</t>
   </si>
   <si>
     <t>Administered Arbitration</t>
   </si>
   <si>
-    <t>Liquidated Damages</t>
+    <t>Schedule of Amendments</t>
   </si>
   <si>
     <t>Singapore International Arbitration Centre</t>
   </si>
   <si>
-    <t>Employee Benefit Trust</t>
-  </si>
-  <si>
-    <t>Collateral Warranty</t>
-  </si>
-  <si>
-    <t>Registrar of Companies</t>
-  </si>
-  <si>
-    <t>Schedule of Amendments</t>
-  </si>
-  <si>
-    <t>Data Protection Officer</t>
-  </si>
-  <si>
-    <t>Vacant Possession</t>
-  </si>
-  <si>
-    <t>Financial Promotion</t>
-  </si>
-  <si>
-    <t>Pre-emption Rights</t>
+    <t>Company Share Option Plan</t>
+  </si>
+  <si>
+    <t>Medicinal Product</t>
+  </si>
+  <si>
+    <t>Wrongful Dismissal</t>
   </si>
   <si>
     <t>Construction Act</t>
   </si>
   <si>
-    <t>Lasting Power of Attorney</t>
-  </si>
-  <si>
-    <t>Share Incentive Plan</t>
+    <t>Special Categories of Personal Data</t>
+  </si>
+  <si>
+    <t>Clawback</t>
+  </si>
+  <si>
+    <t>Compulsory Purchase Order</t>
+  </si>
+  <si>
+    <t>Form E</t>
+  </si>
+  <si>
+    <t>Vicarious Liability</t>
+  </si>
+  <si>
+    <t>Design Right</t>
+  </si>
+  <si>
+    <t>Constructive Dismissal</t>
   </si>
   <si>
     <t>Administrative Receivership</t>
   </si>
   <si>
-    <t>Interim Payment</t>
+    <t>Direct Discrimination</t>
+  </si>
+  <si>
+    <t>Relief from Forfeiture</t>
+  </si>
+  <si>
+    <t>Special Guardianship Order</t>
+  </si>
+  <si>
+    <t>Pleadings</t>
+  </si>
+  <si>
+    <t>Early Conciliation</t>
+  </si>
+  <si>
+    <t>Moral Rights</t>
+  </si>
+  <si>
+    <t>Indirect Discrimination</t>
+  </si>
+  <si>
+    <t>De minimis</t>
+  </si>
+  <si>
+    <t>Divorce Petition</t>
   </si>
   <si>
     <t>Amortisation</t>
@@ -295,412 +406,319 @@
     <t>Renewables Obligation</t>
   </si>
   <si>
-    <t>Pay As You Earn</t>
-  </si>
-  <si>
-    <t>Periodical Payments Order</t>
-  </si>
-  <si>
-    <t>Design Right</t>
-  </si>
-  <si>
-    <t>Company Share Option Plan</t>
-  </si>
-  <si>
-    <t>Child Arrangements Order</t>
+    <t>Commercial Agent</t>
+  </si>
+  <si>
+    <t>Marketing Authorisation</t>
+  </si>
+  <si>
+    <t>Shadow Director</t>
+  </si>
+  <si>
+    <t>Basel III</t>
+  </si>
+  <si>
+    <t>Use Classes Order</t>
   </si>
   <si>
     <t>Equal Pay</t>
   </si>
   <si>
-    <t>Indirect Discrimination</t>
-  </si>
-  <si>
     <t>Commercial Property Standard Enquiries</t>
   </si>
   <si>
-    <t>Moral Rights</t>
-  </si>
-  <si>
-    <t>Early Conciliation</t>
-  </si>
-  <si>
-    <t>Medicinal Product</t>
-  </si>
-  <si>
-    <t>Direct Discrimination</t>
-  </si>
-  <si>
-    <t>Basel III</t>
-  </si>
-  <si>
-    <t>Clawback</t>
-  </si>
-  <si>
-    <t>Vicarious Liability</t>
-  </si>
-  <si>
-    <t>Decree Nisi</t>
+    <t>Payment In Lieu Of Notice</t>
+  </si>
+  <si>
+    <t>Call Option</t>
+  </si>
+  <si>
+    <t>Special Category Data</t>
+  </si>
+  <si>
+    <t>Trademark</t>
+  </si>
+  <si>
+    <t>Breach of Confidence</t>
+  </si>
+  <si>
+    <t>Ultra vires</t>
   </si>
   <si>
     <t>Performance Bond</t>
   </si>
   <si>
-    <t>Constructive Dismissal</t>
-  </si>
-  <si>
-    <t>Privity of Contract</t>
-  </si>
-  <si>
-    <t>Trademark</t>
-  </si>
-  <si>
-    <t>Restrictive Covenant</t>
-  </si>
-  <si>
-    <t>Reasonable Adjustments</t>
+    <t>Treasury Shares</t>
+  </si>
+  <si>
+    <t>Peppercorn Rent</t>
+  </si>
+  <si>
+    <t>Maintenance Pending Suit</t>
+  </si>
+  <si>
+    <t>Gross Misconduct</t>
+  </si>
+  <si>
+    <t>Victimisation</t>
+  </si>
+  <si>
+    <t>Centre of Main Interests</t>
+  </si>
+  <si>
+    <t>Base Rate</t>
+  </si>
+  <si>
+    <t>Schedule of Dilapidations</t>
+  </si>
+  <si>
+    <t>Letter of Credit</t>
   </si>
   <si>
     <t>Financial Instrument</t>
   </si>
   <si>
-    <t>Pleadings</t>
-  </si>
-  <si>
-    <t>Shadow Director</t>
-  </si>
-  <si>
-    <t>Marketing Authorisation</t>
-  </si>
-  <si>
-    <t>Assured Shorthold Tenancy</t>
-  </si>
-  <si>
-    <t>Victimisation</t>
-  </si>
-  <si>
-    <t>Care Order</t>
-  </si>
-  <si>
-    <t>Letter of Credit</t>
-  </si>
-  <si>
-    <t>Grant of Representation</t>
-  </si>
-  <si>
-    <t>Form E</t>
+    <t>Development Agreement</t>
+  </si>
+  <si>
+    <t>Prohibited Steps Order</t>
   </si>
   <si>
     <t>Provisional Liquidator</t>
   </si>
   <si>
-    <t>Call Option</t>
-  </si>
-  <si>
-    <t>Special Categories of Personal Data</t>
-  </si>
-  <si>
-    <t>Wrongful Dismissal</t>
-  </si>
-  <si>
-    <t>Compulsory Purchase Order</t>
-  </si>
-  <si>
-    <t>Breach of Confidence</t>
-  </si>
-  <si>
-    <t>Treasury Shares</t>
-  </si>
-  <si>
-    <t>Trust of Land</t>
-  </si>
-  <si>
-    <t>Letters of Administration</t>
+    <t>Contract for Services</t>
+  </si>
+  <si>
+    <t>Specific Issue Order</t>
+  </si>
+  <si>
+    <t>Distributable Profits</t>
+  </si>
+  <si>
+    <t>Capacity Market</t>
   </si>
   <si>
     <t>London Maritime Arbitrators Association</t>
   </si>
   <si>
-    <t>De minimis</t>
+    <t>Assets of Community Value</t>
+  </si>
+  <si>
+    <t>Distribution Agreement</t>
+  </si>
+  <si>
+    <t>Party Autonomy</t>
   </si>
   <si>
     <t>Contracts for Difference</t>
   </si>
   <si>
+    <t>Public Law Outline</t>
+  </si>
+  <si>
+    <t>Pre-Nuptial Agreement</t>
+  </si>
+  <si>
+    <t>Private Prosecution</t>
+  </si>
+  <si>
     <t>Underwriter</t>
   </si>
   <si>
-    <t>Constructive Trust</t>
-  </si>
-  <si>
-    <t>Centre of Main Interests</t>
-  </si>
-  <si>
-    <t>Special Guardianship Order</t>
-  </si>
-  <si>
-    <t>Payment In Lieu Of Notice</t>
-  </si>
-  <si>
-    <t>Capacity Market</t>
-  </si>
-  <si>
-    <t>Development Agreement</t>
-  </si>
-  <si>
-    <t>Base Rate</t>
-  </si>
-  <si>
-    <t>Party Autonomy</t>
+    <t>Ogden Tables</t>
   </si>
   <si>
     <t>Payment Notice</t>
   </si>
   <si>
-    <t>Public Law Outline</t>
-  </si>
-  <si>
-    <t>Special Category Data</t>
-  </si>
-  <si>
-    <t>Ogden Tables</t>
-  </si>
-  <si>
-    <t>Contract for Services</t>
-  </si>
-  <si>
-    <t>Ultra vires</t>
-  </si>
-  <si>
-    <t>Private Prosecution</t>
-  </si>
-  <si>
-    <t>Non-Molestation Order</t>
-  </si>
-  <si>
-    <t>Breach of Covenant</t>
-  </si>
-  <si>
-    <t>Gross Misconduct</t>
-  </si>
-  <si>
-    <t>Adverse Possession</t>
+    <t>Trade Secret</t>
+  </si>
+  <si>
+    <t>Liquidated and Ascertained Damages</t>
+  </si>
+  <si>
+    <t>Zero Hours</t>
+  </si>
+  <si>
+    <t>Group Personal Pension</t>
   </si>
   <si>
     <t>Substantial Shareholdings Exemption</t>
   </si>
   <si>
-    <t>Maintenance Pending Suit</t>
-  </si>
-  <si>
-    <t>Group Personal Pension</t>
+    <t>Buy Out</t>
+  </si>
+  <si>
+    <t>Growth Shares</t>
   </si>
   <si>
     <t>United Kingdom Continental Shelf</t>
   </si>
   <si>
-    <t>Growth Shares</t>
-  </si>
-  <si>
-    <t>Dilapidations</t>
+    <t>Standing Orders</t>
+  </si>
+  <si>
+    <t>Battle of The Forms</t>
   </si>
   <si>
     <t>Capital Allowance</t>
   </si>
   <si>
-    <t>Distribution Agreement</t>
-  </si>
-  <si>
-    <t>Relief from Forfeiture</t>
-  </si>
-  <si>
-    <t>Liquidated and Ascertained Damages</t>
-  </si>
-  <si>
-    <t>Trade Secret</t>
-  </si>
-  <si>
-    <t>Zero Hours</t>
-  </si>
-  <si>
     <t>International Centre for Settlement of Investment Disputes</t>
   </si>
   <si>
-    <t>Pre-Nuptial Agreement</t>
+    <t>Summary Only Offence</t>
+  </si>
+  <si>
+    <t>Comity</t>
+  </si>
+  <si>
+    <t>Accelerated Possession Proceedings</t>
+  </si>
+  <si>
+    <t>Mutual Wills</t>
   </si>
   <si>
     <t>Indictable Only</t>
   </si>
   <si>
-    <t>Use Classes Order</t>
+    <t>Bonus Issue</t>
+  </si>
+  <si>
+    <t>Planning Judicial Review</t>
+  </si>
+  <si>
+    <t>Data Protection Impact Assessment</t>
+  </si>
+  <si>
+    <t>State of The Art</t>
+  </si>
+  <si>
+    <t>Bilateral Investment Treaty</t>
+  </si>
+  <si>
+    <t>Code for Crown Prosecutors</t>
+  </si>
+  <si>
+    <t>Latent Defect</t>
   </si>
   <si>
     <t>Unauthorised Payment</t>
   </si>
   <si>
-    <t>Planning Judicial Review</t>
-  </si>
-  <si>
-    <t>Code for Crown Prosecutors</t>
-  </si>
-  <si>
-    <t>Prohibited Steps Order</t>
-  </si>
-  <si>
-    <t>Summary Only Offence</t>
-  </si>
-  <si>
-    <t>Commercial Agent</t>
-  </si>
-  <si>
-    <t>Bilateral Investment Treaty</t>
+    <t>Leasehold Enfranchisement</t>
+  </si>
+  <si>
+    <t>Tender Offer</t>
   </si>
   <si>
     <t>Guaranteed Minimum Pension</t>
   </si>
   <si>
-    <t>Assets of Community Value</t>
-  </si>
-  <si>
-    <t>State of The Art</t>
-  </si>
-  <si>
-    <t>Comity</t>
-  </si>
-  <si>
-    <t>Tenancy at Will</t>
+    <t>Letters of Administration with Will Annexed</t>
   </si>
   <si>
     <t>Collaborative Law</t>
   </si>
   <si>
-    <t>Latent Defect</t>
-  </si>
-  <si>
-    <t>Tender Offer</t>
-  </si>
-  <si>
     <t>Defective Title Insurance</t>
   </si>
   <si>
-    <t>Standing Orders</t>
-  </si>
-  <si>
-    <t>Buy Out</t>
-  </si>
-  <si>
-    <t>Battle of The Forms</t>
+    <t>Attestation Clause</t>
+  </si>
+  <si>
+    <t>Joint Share Ownership Plan</t>
   </si>
   <si>
     <t>Pension Liberation</t>
   </si>
   <si>
-    <t>Joint Share Ownership Plan</t>
-  </si>
-  <si>
-    <t>Bonus Issue</t>
+    <t>Stopping Up Order</t>
+  </si>
+  <si>
+    <t>Quarter Day</t>
+  </si>
+  <si>
+    <t>Construction Pre-Action Protocol</t>
   </si>
   <si>
     <t>Bill of Exchange</t>
   </si>
   <si>
-    <t>Divorce Petition</t>
+    <t>Pay Less Notice</t>
+  </si>
+  <si>
+    <t>Selective Distribution System</t>
+  </si>
+  <si>
+    <t>The Grain and Feed Trade Association</t>
+  </si>
+  <si>
+    <t>Deferred Member</t>
   </si>
   <si>
     <t>EU Emissions Trading Scheme</t>
   </si>
   <si>
-    <t>Selective Distribution System</t>
+    <t>IP Licence</t>
+  </si>
+  <si>
+    <t>Exclusion Tests</t>
+  </si>
+  <si>
+    <t>Reservation of Rights</t>
+  </si>
+  <si>
+    <t>Multilateral Investment Treaty</t>
   </si>
   <si>
     <t>Poll Vote</t>
   </si>
   <si>
-    <t>Deferred Member</t>
-  </si>
-  <si>
-    <t>Specific Issue Order</t>
-  </si>
-  <si>
-    <t>Construction Pre-Action Protocol</t>
-  </si>
-  <si>
-    <t>Data Protection Impact Assessment</t>
-  </si>
-  <si>
-    <t>Schedule of Dilapidations</t>
-  </si>
-  <si>
-    <t>Mutual Wills</t>
-  </si>
-  <si>
-    <t>Distributable Profits</t>
-  </si>
-  <si>
-    <t>The Grain and Feed Trade Association</t>
-  </si>
-  <si>
-    <t>Quarter Day</t>
-  </si>
-  <si>
-    <t>Multilateral Investment Treaty</t>
+    <t>Article 4 Direction</t>
+  </si>
+  <si>
+    <t>Immigration Skills Charge</t>
+  </si>
+  <si>
+    <t>Save As You Earn Scheme</t>
+  </si>
+  <si>
+    <t>Jervis V Harris Clause</t>
+  </si>
+  <si>
+    <t>Drag Along Right</t>
+  </si>
+  <si>
+    <t>Contract for Differences</t>
+  </si>
+  <si>
+    <t>Earn Out</t>
+  </si>
+  <si>
+    <t>Certificate of Deposit</t>
+  </si>
+  <si>
+    <t>Mutatis mutandis</t>
+  </si>
+  <si>
+    <t>Section 2 Interview</t>
   </si>
   <si>
     <t>Influencer Agreement</t>
   </si>
   <si>
-    <t>Pay Less Notice</t>
-  </si>
-  <si>
-    <t>Save As You Earn Scheme</t>
+    <t>Anti-Competitive Agreement</t>
+  </si>
+  <si>
+    <t>Newton Hearing</t>
+  </si>
+  <si>
+    <t>Class Tests</t>
   </si>
   <si>
     <t>Lease Surrender</t>
-  </si>
-  <si>
-    <t>Stopping Up Order</t>
-  </si>
-  <si>
-    <t>IP Licence</t>
-  </si>
-  <si>
-    <t>Article 4 Direction</t>
-  </si>
-  <si>
-    <t>Accelerated Possession Proceedings</t>
-  </si>
-  <si>
-    <t>Newton Hearing</t>
-  </si>
-  <si>
-    <t>Class Tests</t>
-  </si>
-  <si>
-    <t>Immigration Skills Charge</t>
-  </si>
-  <si>
-    <t>Certificate of Deposit</t>
-  </si>
-  <si>
-    <t>Peppercorn Rent</t>
-  </si>
-  <si>
-    <t>Reservation of Rights</t>
-  </si>
-  <si>
-    <t>Exclusion Tests</t>
-  </si>
-  <si>
-    <t>Section 2 Interview</t>
-  </si>
-  <si>
-    <t>Anti-Competitive Agreement</t>
-  </si>
-  <si>
-    <t>Attestation Clause</t>
-  </si>
-  <si>
-    <t>No glossary term linked</t>
   </si>
 </sst>
 </file>
@@ -724,18 +742,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -765,12 +777,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1072,19 +1083,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C228"/>
+  <dimension ref="A1:B235"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="51.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1092,125 +1103,122 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
-      <c r="B2" s="2">
-        <v>12779</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B2">
+        <v>21363</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>1579</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2118</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>968</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B7">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B8">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B9">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B10">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B11">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B12">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B13">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B14">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B15">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B16">
-        <v>131</v>
+        <v>247</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -1218,7 +1226,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>130</v>
+        <v>216</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -1226,7 +1234,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>127</v>
+        <v>206</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
@@ -1234,7 +1242,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>125</v>
+        <v>197</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -1242,7 +1250,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>124</v>
+        <v>194</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
@@ -1250,7 +1258,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>101</v>
+        <v>189</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
@@ -1258,7 +1266,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>93</v>
+        <v>168</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -1266,7 +1274,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>92</v>
+        <v>166</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
@@ -1274,7 +1282,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>88</v>
+        <v>165</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
@@ -1282,7 +1290,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>85</v>
+        <v>153</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
@@ -1290,7 +1298,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>85</v>
+        <v>151</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
@@ -1298,7 +1306,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>85</v>
+        <v>147</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
@@ -1306,7 +1314,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>82</v>
+        <v>144</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
@@ -1314,7 +1322,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>81</v>
+        <v>143</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
@@ -1322,7 +1330,7 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>79</v>
+        <v>138</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
@@ -1330,7 +1338,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>79</v>
+        <v>130</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
@@ -1338,7 +1346,7 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>78</v>
+        <v>128</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
@@ -1346,7 +1354,7 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>75</v>
+        <v>124</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
@@ -1354,7 +1362,7 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>73</v>
+        <v>123</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
@@ -1362,7 +1370,7 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>71</v>
+        <v>118</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
@@ -1370,7 +1378,7 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>69</v>
+        <v>117</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
@@ -1378,7 +1386,7 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>66</v>
+        <v>110</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
@@ -1386,7 +1394,7 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>65</v>
+        <v>102</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
@@ -1394,7 +1402,7 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>64</v>
+        <v>101</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
@@ -1402,7 +1410,7 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>63</v>
+        <v>101</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
@@ -1410,7 +1418,7 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>62</v>
+        <v>90</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
@@ -1418,7 +1426,7 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>61</v>
+        <v>90</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
@@ -1426,7 +1434,7 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>61</v>
+        <v>87</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
@@ -1434,7 +1442,7 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>60</v>
+        <v>86</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
@@ -1442,7 +1450,7 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>55</v>
+        <v>86</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
@@ -1450,7 +1458,7 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>54</v>
+        <v>84</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
@@ -1458,7 +1466,7 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <v>53</v>
+        <v>81</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
@@ -1466,7 +1474,7 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>51</v>
+        <v>78</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
@@ -1474,7 +1482,7 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>50</v>
+        <v>77</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
@@ -1482,7 +1490,7 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>49</v>
+        <v>77</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
@@ -1490,7 +1498,7 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>48</v>
+        <v>76</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
@@ -1498,7 +1506,7 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <v>47</v>
+        <v>75</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
@@ -1506,7 +1514,7 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>46</v>
+        <v>74</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
@@ -1514,7 +1522,7 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <v>44</v>
+        <v>73</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
@@ -1522,7 +1530,7 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>43</v>
+        <v>73</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
@@ -1530,7 +1538,7 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>43</v>
+        <v>68</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
@@ -1538,7 +1546,7 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <v>42</v>
+        <v>68</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
@@ -1546,7 +1554,7 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <v>40</v>
+        <v>68</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
@@ -1554,7 +1562,7 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>38</v>
+        <v>65</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
@@ -1562,7 +1570,7 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <v>38</v>
+        <v>64</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
@@ -1570,7 +1578,7 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <v>36</v>
+        <v>63</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
@@ -1578,7 +1586,7 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <v>36</v>
+        <v>63</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
@@ -1586,7 +1594,7 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <v>36</v>
+        <v>62</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
@@ -1594,7 +1602,7 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>34</v>
+        <v>60</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
@@ -1602,7 +1610,7 @@
         <v>64</v>
       </c>
       <c r="B65">
-        <v>33</v>
+        <v>59</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
@@ -1610,7 +1618,7 @@
         <v>65</v>
       </c>
       <c r="B66">
-        <v>33</v>
+        <v>58</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
@@ -1618,7 +1626,7 @@
         <v>66</v>
       </c>
       <c r="B67">
-        <v>31</v>
+        <v>58</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
@@ -1626,7 +1634,7 @@
         <v>67</v>
       </c>
       <c r="B68">
-        <v>31</v>
+        <v>58</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
@@ -1634,7 +1642,7 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <v>30</v>
+        <v>55</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
@@ -1642,7 +1650,7 @@
         <v>69</v>
       </c>
       <c r="B70">
-        <v>30</v>
+        <v>53</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
@@ -1650,7 +1658,7 @@
         <v>70</v>
       </c>
       <c r="B71">
-        <v>30</v>
+        <v>51</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
@@ -1658,7 +1666,7 @@
         <v>71</v>
       </c>
       <c r="B72">
-        <v>30</v>
+        <v>51</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
@@ -1666,7 +1674,7 @@
         <v>72</v>
       </c>
       <c r="B73">
-        <v>29</v>
+        <v>50</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
@@ -1674,7 +1682,7 @@
         <v>73</v>
       </c>
       <c r="B74">
-        <v>28</v>
+        <v>48</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
@@ -1682,7 +1690,7 @@
         <v>74</v>
       </c>
       <c r="B75">
-        <v>28</v>
+        <v>48</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
@@ -1690,7 +1698,7 @@
         <v>75</v>
       </c>
       <c r="B76">
-        <v>28</v>
+        <v>48</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
@@ -1698,7 +1706,7 @@
         <v>76</v>
       </c>
       <c r="B77">
-        <v>28</v>
+        <v>47</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
@@ -1706,7 +1714,7 @@
         <v>77</v>
       </c>
       <c r="B78">
-        <v>27</v>
+        <v>47</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
@@ -1714,7 +1722,7 @@
         <v>78</v>
       </c>
       <c r="B79">
-        <v>26</v>
+        <v>47</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
@@ -1722,7 +1730,7 @@
         <v>79</v>
       </c>
       <c r="B80">
-        <v>26</v>
+        <v>47</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
@@ -1730,7 +1738,7 @@
         <v>80</v>
       </c>
       <c r="B81">
-        <v>26</v>
+        <v>46</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
@@ -1738,7 +1746,7 @@
         <v>81</v>
       </c>
       <c r="B82">
-        <v>25</v>
+        <v>46</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
@@ -1746,7 +1754,7 @@
         <v>82</v>
       </c>
       <c r="B83">
-        <v>25</v>
+        <v>43</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
@@ -1754,7 +1762,7 @@
         <v>83</v>
       </c>
       <c r="B84">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
@@ -1762,7 +1770,7 @@
         <v>84</v>
       </c>
       <c r="B85">
-        <v>23</v>
+        <v>41</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
@@ -1770,7 +1778,7 @@
         <v>85</v>
       </c>
       <c r="B86">
-        <v>22</v>
+        <v>39</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
@@ -1778,7 +1786,7 @@
         <v>86</v>
       </c>
       <c r="B87">
-        <v>22</v>
+        <v>39</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
@@ -1786,7 +1794,7 @@
         <v>87</v>
       </c>
       <c r="B88">
-        <v>21</v>
+        <v>39</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
@@ -1794,7 +1802,7 @@
         <v>88</v>
       </c>
       <c r="B89">
-        <v>21</v>
+        <v>37</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
@@ -1802,7 +1810,7 @@
         <v>89</v>
       </c>
       <c r="B90">
-        <v>20</v>
+        <v>37</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
@@ -1810,7 +1818,7 @@
         <v>90</v>
       </c>
       <c r="B91">
-        <v>20</v>
+        <v>36</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
@@ -1818,7 +1826,7 @@
         <v>91</v>
       </c>
       <c r="B92">
-        <v>19</v>
+        <v>35</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
@@ -1826,7 +1834,7 @@
         <v>92</v>
       </c>
       <c r="B93">
-        <v>19</v>
+        <v>35</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
@@ -1834,7 +1842,7 @@
         <v>93</v>
       </c>
       <c r="B94">
-        <v>19</v>
+        <v>35</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
@@ -1842,7 +1850,7 @@
         <v>94</v>
       </c>
       <c r="B95">
-        <v>18</v>
+        <v>34</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
@@ -1850,7 +1858,7 @@
         <v>95</v>
       </c>
       <c r="B96">
-        <v>18</v>
+        <v>33</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
@@ -1858,7 +1866,7 @@
         <v>96</v>
       </c>
       <c r="B97">
-        <v>18</v>
+        <v>33</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
@@ -1866,7 +1874,7 @@
         <v>97</v>
       </c>
       <c r="B98">
-        <v>17</v>
+        <v>32</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
@@ -1874,7 +1882,7 @@
         <v>98</v>
       </c>
       <c r="B99">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
@@ -1882,7 +1890,7 @@
         <v>99</v>
       </c>
       <c r="B100">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
@@ -1890,7 +1898,7 @@
         <v>100</v>
       </c>
       <c r="B101">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
@@ -1898,7 +1906,7 @@
         <v>101</v>
       </c>
       <c r="B102">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
@@ -1906,7 +1914,7 @@
         <v>102</v>
       </c>
       <c r="B103">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
@@ -1914,7 +1922,7 @@
         <v>103</v>
       </c>
       <c r="B104">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
@@ -1922,7 +1930,7 @@
         <v>104</v>
       </c>
       <c r="B105">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
@@ -1930,7 +1938,7 @@
         <v>105</v>
       </c>
       <c r="B106">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
@@ -1938,7 +1946,7 @@
         <v>106</v>
       </c>
       <c r="B107">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
@@ -1946,7 +1954,7 @@
         <v>107</v>
       </c>
       <c r="B108">
-        <v>15</v>
+        <v>27</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
@@ -1954,7 +1962,7 @@
         <v>108</v>
       </c>
       <c r="B109">
-        <v>15</v>
+        <v>26</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
@@ -1962,7 +1970,7 @@
         <v>109</v>
       </c>
       <c r="B110">
-        <v>15</v>
+        <v>26</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
@@ -1970,7 +1978,7 @@
         <v>110</v>
       </c>
       <c r="B111">
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
@@ -1978,7 +1986,7 @@
         <v>111</v>
       </c>
       <c r="B112">
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
@@ -1986,7 +1994,7 @@
         <v>112</v>
       </c>
       <c r="B113">
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
@@ -1994,7 +2002,7 @@
         <v>113</v>
       </c>
       <c r="B114">
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.3">
@@ -2002,7 +2010,7 @@
         <v>114</v>
       </c>
       <c r="B115">
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
@@ -2010,7 +2018,7 @@
         <v>115</v>
       </c>
       <c r="B116">
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.3">
@@ -2018,7 +2026,7 @@
         <v>116</v>
       </c>
       <c r="B117">
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.3">
@@ -2026,7 +2034,7 @@
         <v>117</v>
       </c>
       <c r="B118">
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.3">
@@ -2034,7 +2042,7 @@
         <v>118</v>
       </c>
       <c r="B119">
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
@@ -2042,7 +2050,7 @@
         <v>119</v>
       </c>
       <c r="B120">
-        <v>13</v>
+        <v>24</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.3">
@@ -2050,7 +2058,7 @@
         <v>120</v>
       </c>
       <c r="B121">
-        <v>13</v>
+        <v>24</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.3">
@@ -2058,7 +2066,7 @@
         <v>121</v>
       </c>
       <c r="B122">
-        <v>13</v>
+        <v>24</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.3">
@@ -2066,7 +2074,7 @@
         <v>122</v>
       </c>
       <c r="B123">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.3">
@@ -2074,7 +2082,7 @@
         <v>123</v>
       </c>
       <c r="B124">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.3">
@@ -2082,7 +2090,7 @@
         <v>124</v>
       </c>
       <c r="B125">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.3">
@@ -2090,7 +2098,7 @@
         <v>125</v>
       </c>
       <c r="B126">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.3">
@@ -2098,7 +2106,7 @@
         <v>126</v>
       </c>
       <c r="B127">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.3">
@@ -2106,7 +2114,7 @@
         <v>127</v>
       </c>
       <c r="B128">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.3">
@@ -2114,7 +2122,7 @@
         <v>128</v>
       </c>
       <c r="B129">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.3">
@@ -2122,7 +2130,7 @@
         <v>129</v>
       </c>
       <c r="B130">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.3">
@@ -2130,7 +2138,7 @@
         <v>130</v>
       </c>
       <c r="B131">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.3">
@@ -2138,7 +2146,7 @@
         <v>131</v>
       </c>
       <c r="B132">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.3">
@@ -2146,7 +2154,7 @@
         <v>132</v>
       </c>
       <c r="B133">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.3">
@@ -2154,7 +2162,7 @@
         <v>133</v>
       </c>
       <c r="B134">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.3">
@@ -2162,7 +2170,7 @@
         <v>134</v>
       </c>
       <c r="B135">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.3">
@@ -2170,7 +2178,7 @@
         <v>135</v>
       </c>
       <c r="B136">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.3">
@@ -2178,7 +2186,7 @@
         <v>136</v>
       </c>
       <c r="B137">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.3">
@@ -2186,7 +2194,7 @@
         <v>137</v>
       </c>
       <c r="B138">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.3">
@@ -2194,7 +2202,7 @@
         <v>138</v>
       </c>
       <c r="B139">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.3">
@@ -2202,7 +2210,7 @@
         <v>139</v>
       </c>
       <c r="B140">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.3">
@@ -2210,7 +2218,7 @@
         <v>140</v>
       </c>
       <c r="B141">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.3">
@@ -2218,7 +2226,7 @@
         <v>141</v>
       </c>
       <c r="B142">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.3">
@@ -2226,7 +2234,7 @@
         <v>142</v>
       </c>
       <c r="B143">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.3">
@@ -2234,7 +2242,7 @@
         <v>143</v>
       </c>
       <c r="B144">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.3">
@@ -2242,7 +2250,7 @@
         <v>144</v>
       </c>
       <c r="B145">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.3">
@@ -2250,7 +2258,7 @@
         <v>145</v>
       </c>
       <c r="B146">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.3">
@@ -2258,7 +2266,7 @@
         <v>146</v>
       </c>
       <c r="B147">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.3">
@@ -2266,7 +2274,7 @@
         <v>147</v>
       </c>
       <c r="B148">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.3">
@@ -2274,7 +2282,7 @@
         <v>148</v>
       </c>
       <c r="B149">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.3">
@@ -2282,7 +2290,7 @@
         <v>149</v>
       </c>
       <c r="B150">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.3">
@@ -2290,7 +2298,7 @@
         <v>150</v>
       </c>
       <c r="B151">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.3">
@@ -2298,7 +2306,7 @@
         <v>151</v>
       </c>
       <c r="B152">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.3">
@@ -2306,7 +2314,7 @@
         <v>152</v>
       </c>
       <c r="B153">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.3">
@@ -2314,7 +2322,7 @@
         <v>153</v>
       </c>
       <c r="B154">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.3">
@@ -2322,7 +2330,7 @@
         <v>154</v>
       </c>
       <c r="B155">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.3">
@@ -2330,7 +2338,7 @@
         <v>155</v>
       </c>
       <c r="B156">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.3">
@@ -2338,7 +2346,7 @@
         <v>156</v>
       </c>
       <c r="B157">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.3">
@@ -2346,7 +2354,7 @@
         <v>157</v>
       </c>
       <c r="B158">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.3">
@@ -2354,7 +2362,7 @@
         <v>158</v>
       </c>
       <c r="B159">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.3">
@@ -2362,7 +2370,7 @@
         <v>159</v>
       </c>
       <c r="B160">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.3">
@@ -2370,7 +2378,7 @@
         <v>160</v>
       </c>
       <c r="B161">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.3">
@@ -2378,7 +2386,7 @@
         <v>161</v>
       </c>
       <c r="B162">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.3">
@@ -2386,7 +2394,7 @@
         <v>162</v>
       </c>
       <c r="B163">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.3">
@@ -2394,7 +2402,7 @@
         <v>163</v>
       </c>
       <c r="B164">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.3">
@@ -2402,7 +2410,7 @@
         <v>164</v>
       </c>
       <c r="B165">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.3">
@@ -2410,7 +2418,7 @@
         <v>165</v>
       </c>
       <c r="B166">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.3">
@@ -2418,7 +2426,7 @@
         <v>166</v>
       </c>
       <c r="B167">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.3">
@@ -2426,7 +2434,7 @@
         <v>167</v>
       </c>
       <c r="B168">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.3">
@@ -2434,7 +2442,7 @@
         <v>168</v>
       </c>
       <c r="B169">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.3">
@@ -2442,7 +2450,7 @@
         <v>169</v>
       </c>
       <c r="B170">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.3">
@@ -2450,7 +2458,7 @@
         <v>170</v>
       </c>
       <c r="B171">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.3">
@@ -2458,7 +2466,7 @@
         <v>171</v>
       </c>
       <c r="B172">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.3">
@@ -2466,7 +2474,7 @@
         <v>172</v>
       </c>
       <c r="B173">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.3">
@@ -2474,7 +2482,7 @@
         <v>173</v>
       </c>
       <c r="B174">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.3">
@@ -2482,7 +2490,7 @@
         <v>174</v>
       </c>
       <c r="B175">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.3">
@@ -2490,7 +2498,7 @@
         <v>175</v>
       </c>
       <c r="B176">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.3">
@@ -2498,7 +2506,7 @@
         <v>176</v>
       </c>
       <c r="B177">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.3">
@@ -2506,7 +2514,7 @@
         <v>177</v>
       </c>
       <c r="B178">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.3">
@@ -2514,7 +2522,7 @@
         <v>178</v>
       </c>
       <c r="B179">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.3">
@@ -2522,7 +2530,7 @@
         <v>179</v>
       </c>
       <c r="B180">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.3">
@@ -2530,7 +2538,7 @@
         <v>180</v>
       </c>
       <c r="B181">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.3">
@@ -2538,7 +2546,7 @@
         <v>181</v>
       </c>
       <c r="B182">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.3">
@@ -2546,7 +2554,7 @@
         <v>182</v>
       </c>
       <c r="B183">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.3">
@@ -2554,7 +2562,7 @@
         <v>183</v>
       </c>
       <c r="B184">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.3">
@@ -2562,7 +2570,7 @@
         <v>184</v>
       </c>
       <c r="B185">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.3">
@@ -2570,7 +2578,7 @@
         <v>185</v>
       </c>
       <c r="B186">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.3">
@@ -2578,7 +2586,7 @@
         <v>186</v>
       </c>
       <c r="B187">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.3">
@@ -2586,7 +2594,7 @@
         <v>187</v>
       </c>
       <c r="B188">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.3">
@@ -2594,7 +2602,7 @@
         <v>188</v>
       </c>
       <c r="B189">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.3">
@@ -2602,7 +2610,7 @@
         <v>189</v>
       </c>
       <c r="B190">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.3">
@@ -2610,7 +2618,7 @@
         <v>190</v>
       </c>
       <c r="B191">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.3">
@@ -2618,7 +2626,7 @@
         <v>191</v>
       </c>
       <c r="B192">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.3">
@@ -2626,7 +2634,7 @@
         <v>192</v>
       </c>
       <c r="B193">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.3">
@@ -2634,7 +2642,7 @@
         <v>193</v>
       </c>
       <c r="B194">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.3">
@@ -2642,7 +2650,7 @@
         <v>194</v>
       </c>
       <c r="B195">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.3">
@@ -2650,7 +2658,7 @@
         <v>195</v>
       </c>
       <c r="B196">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.3">
@@ -2658,7 +2666,7 @@
         <v>196</v>
       </c>
       <c r="B197">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.3">
@@ -2666,7 +2674,7 @@
         <v>197</v>
       </c>
       <c r="B198">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.3">
@@ -2674,7 +2682,7 @@
         <v>198</v>
       </c>
       <c r="B199">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.3">
@@ -2682,7 +2690,7 @@
         <v>199</v>
       </c>
       <c r="B200">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.3">
@@ -2690,7 +2698,7 @@
         <v>200</v>
       </c>
       <c r="B201">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.3">
@@ -2698,7 +2706,7 @@
         <v>201</v>
       </c>
       <c r="B202">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.3">
@@ -2706,7 +2714,7 @@
         <v>202</v>
       </c>
       <c r="B203">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.3">
@@ -2714,7 +2722,7 @@
         <v>203</v>
       </c>
       <c r="B204">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.3">
@@ -2722,7 +2730,7 @@
         <v>204</v>
       </c>
       <c r="B205">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.3">
@@ -2730,7 +2738,7 @@
         <v>205</v>
       </c>
       <c r="B206">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.3">
@@ -2738,7 +2746,7 @@
         <v>206</v>
       </c>
       <c r="B207">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.3">
@@ -2746,7 +2754,7 @@
         <v>207</v>
       </c>
       <c r="B208">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.3">
@@ -2754,7 +2762,7 @@
         <v>208</v>
       </c>
       <c r="B209">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.3">
@@ -2762,7 +2770,7 @@
         <v>209</v>
       </c>
       <c r="B210">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.3">
@@ -2770,7 +2778,7 @@
         <v>210</v>
       </c>
       <c r="B211">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.3">
@@ -2778,7 +2786,7 @@
         <v>211</v>
       </c>
       <c r="B212">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.3">
@@ -2786,7 +2794,7 @@
         <v>212</v>
       </c>
       <c r="B213">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.3">
@@ -2794,7 +2802,7 @@
         <v>213</v>
       </c>
       <c r="B214">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.3">
@@ -2802,7 +2810,7 @@
         <v>214</v>
       </c>
       <c r="B215">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.3">
@@ -2810,7 +2818,7 @@
         <v>215</v>
       </c>
       <c r="B216">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.3">
@@ -2818,7 +2826,7 @@
         <v>216</v>
       </c>
       <c r="B217">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.3">
@@ -2826,7 +2834,7 @@
         <v>217</v>
       </c>
       <c r="B218">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.3">
@@ -2834,7 +2842,7 @@
         <v>218</v>
       </c>
       <c r="B219">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.3">
@@ -2842,7 +2850,7 @@
         <v>219</v>
       </c>
       <c r="B220">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.3">
@@ -2850,7 +2858,7 @@
         <v>220</v>
       </c>
       <c r="B221">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.3">
@@ -2858,7 +2866,7 @@
         <v>221</v>
       </c>
       <c r="B222">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.3">
@@ -2866,7 +2874,7 @@
         <v>222</v>
       </c>
       <c r="B223">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.3">
@@ -2906,6 +2914,62 @@
         <v>227</v>
       </c>
       <c r="B228">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A229" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B229">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A230" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B230">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A231" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B231">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A232" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B232">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A233" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B233">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A234" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B234">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A235" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B235">
         <v>1</v>
       </c>
     </row>
